--- a/resources/allele_definitions/2021_7_8/table/NUDT15_allele_definition_table.xlsx
+++ b/resources/allele_definitions/2021_7_8/table/NUDT15_allele_definition_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\xixe\pharm\pharmvip-guideline\resources\allele_definitions\2021_7_8\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D714657-50D1-414F-B2DE-9E9C0F2A2C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23904A7-AE15-4D2B-8CE7-CA2E4D84D69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22900" yWindow="3920" windowWidth="23540" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alleles" sheetId="4" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>g.5232G&gt;A</t>
   </si>
   <si>
-    <t>48037801_48037802insGAGTCG</t>
-  </si>
-  <si>
     <t>55_56insGAGTCG</t>
   </si>
   <si>
@@ -450,13 +447,16 @@
   </si>
   <si>
     <t>changed ref to del for *1 of insertion variants to match insertaton representation in other genes</t>
+  </si>
+  <si>
+    <t>g.48037801_48037802insGAGTCG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,31 +1251,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="111" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="17.33203125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="18.83203125" style="5" collapsed="1"/>
+    <col min="2" max="3" width="15.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="17.28515625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" style="5" collapsed="1"/>
     <col min="11" max="11" width="16" style="5" customWidth="1"/>
     <col min="12" max="15" width="16" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="36" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" style="32" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.33203125" style="32" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.83203125" style="36" customWidth="1" collapsed="1"/>
-    <col min="21" max="28" width="18.83203125" style="5" collapsed="1"/>
-    <col min="29" max="140" width="18.83203125" style="5"/>
-    <col min="141" max="16384" width="18.83203125" style="5" collapsed="1"/>
+    <col min="16" max="16" width="13.42578125" style="36" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.28515625" style="32" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.85546875" style="36" customWidth="1" collapsed="1"/>
+    <col min="21" max="28" width="18.85546875" style="5" collapsed="1"/>
+    <col min="29" max="140" width="18.85546875" style="5"/>
+    <col min="141" max="16384" width="18.85546875" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1298,54 +1298,54 @@
       <c r="S1" s="1"/>
       <c r="T1" s="11"/>
     </row>
-    <row r="2" spans="1:20" ht="40" customHeight="1">
+    <row r="2" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>117</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="P2" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>23</v>
@@ -1354,24 +1354,24 @@
         <v>24</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="34" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>28</v>
@@ -1380,34 +1380,34 @@
         <v>29</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>26</v>
@@ -1416,60 +1416,60 @@
         <v>27</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="41" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="28" t="s">
         <v>30</v>
@@ -1478,24 +1478,24 @@
         <v>32</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="6" customFormat="1" ht="40" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>35</v>
@@ -1504,34 +1504,34 @@
         <v>22</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="28" t="s">
         <v>31</v>
@@ -1540,52 +1540,52 @@
         <v>33</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="35" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>14</v>
@@ -1594,15 +1594,15 @@
         <v>15</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" ht="22" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1624,7 +1624,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="19.5" customHeight="1">
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>7</v>
@@ -1686,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="30"/>
       <c r="F9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1714,7 +1714,7 @@
       <c r="S9" s="12"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1">
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="S10" s="12"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1">
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="S11" s="12"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1">
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="31"/>
       <c r="F13" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -1818,9 +1818,9 @@
       <c r="S13" s="16"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1">
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1844,9 +1844,9 @@
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1">
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1870,14 +1870,14 @@
       <c r="S15" s="12"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1">
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="12"/>
@@ -1896,9 +1896,9 @@
       <c r="S16" s="12"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1">
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>6</v>
@@ -1922,9 +1922,9 @@
       <c r="S17" s="12"/>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1">
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1948,9 +1948,9 @@
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1">
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1974,9 +1974,9 @@
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1">
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1991,7 +1991,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="11"/>
@@ -2000,9 +2000,9 @@
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1">
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2010,7 +2010,7 @@
       <c r="E21" s="30"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="1"/>
@@ -2026,9 +2026,9 @@
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
     </row>
-    <row r="22" spans="1:20" ht="19.5" customHeight="1">
+    <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2052,9 +2052,9 @@
       </c>
       <c r="T22" s="11"/>
     </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1">
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2078,9 +2078,9 @@
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
     </row>
-    <row r="24" spans="1:20" ht="19.5" customHeight="1">
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2104,9 +2104,9 @@
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1">
+    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2120,7 +2120,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2130,9 +2130,9 @@
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
     </row>
-    <row r="26" spans="1:20" ht="19.5" customHeight="1">
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
@@ -2156,9 +2156,9 @@
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
     </row>
-    <row r="27" spans="1:20" ht="19.5" customHeight="1">
+    <row r="27" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -2204,29 +2204,29 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2242,62 +2242,62 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>43746</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>43874</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>44004</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>44006</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>44060</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>44069</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
